--- a/Code/Results/Cases/Case_2_181/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_181/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.323146701075075</v>
+        <v>0.9662035273968854</v>
       </c>
       <c r="C2">
-        <v>0.2946799545979957</v>
+        <v>0.2922930264897445</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1183902459909589</v>
+        <v>0.2756424402917332</v>
       </c>
       <c r="F2">
-        <v>0.8944006132947777</v>
+        <v>1.537737671043047</v>
       </c>
       <c r="G2">
-        <v>0.2698948238452203</v>
+        <v>0.3935621180173499</v>
       </c>
       <c r="H2">
-        <v>0.2262193351692119</v>
+        <v>0.5532028149622406</v>
       </c>
       <c r="I2">
-        <v>0.2155673039318877</v>
+        <v>0.5576134873791112</v>
       </c>
       <c r="J2">
-        <v>0.04562945964741871</v>
+        <v>0.0236025723335942</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.5066060080314543</v>
+        <v>0.5634547036626856</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8095955170605933</v>
+        <v>1.104131231087905</v>
       </c>
       <c r="O2">
-        <v>0.9959468351052152</v>
+        <v>1.837966045474914</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.022346742945047</v>
+        <v>0.874220390729306</v>
       </c>
       <c r="C3">
-        <v>0.2770683765137107</v>
+        <v>0.2865049226391676</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1142809726607226</v>
+        <v>0.2761449441553516</v>
       </c>
       <c r="F3">
-        <v>0.8383820283295833</v>
+        <v>1.53497284433999</v>
       </c>
       <c r="G3">
-        <v>0.2515784499171119</v>
+        <v>0.3930109363187242</v>
       </c>
       <c r="H3">
-        <v>0.2228459685689685</v>
+        <v>0.5564545984607818</v>
       </c>
       <c r="I3">
-        <v>0.2182545727472487</v>
+        <v>0.5634891040949377</v>
       </c>
       <c r="J3">
-        <v>0.04112312475381685</v>
+        <v>0.02211049803630161</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4529787339352538</v>
+        <v>0.5509346629821295</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8061059747153863</v>
+        <v>1.105731281217004</v>
       </c>
       <c r="O3">
-        <v>0.9497219191339639</v>
+        <v>1.843355514392769</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.837597897669752</v>
+        <v>0.8177401074844113</v>
       </c>
       <c r="C4">
-        <v>0.2662431840128221</v>
+        <v>0.2829418039676597</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1118981009862914</v>
+        <v>0.2765545275132091</v>
       </c>
       <c r="F4">
-        <v>0.8054303040986568</v>
+        <v>1.534106556762012</v>
       </c>
       <c r="G4">
-        <v>0.2409864356476845</v>
+        <v>0.3929754575098556</v>
       </c>
       <c r="H4">
-        <v>0.2212000750130017</v>
+        <v>0.558711521131336</v>
       </c>
       <c r="I4">
-        <v>0.2204810941437643</v>
+        <v>0.5674181894446235</v>
       </c>
       <c r="J4">
-        <v>0.03834959685367423</v>
+        <v>0.0211887848383725</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4203511716768276</v>
+        <v>0.5434519898627173</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8047748362566125</v>
+        <v>1.107110924337988</v>
       </c>
       <c r="O4">
-        <v>0.9236084085477216</v>
+        <v>1.847843016475082</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.762282844794044</v>
+        <v>0.7947252112458614</v>
       </c>
       <c r="C5">
-        <v>0.2618285015823005</v>
+        <v>0.2814876351450408</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1109611277293361</v>
+        <v>0.276746895738313</v>
       </c>
       <c r="F5">
-        <v>0.7923469702789419</v>
+        <v>1.533962765968404</v>
       </c>
       <c r="G5">
-        <v>0.2368250193661723</v>
+        <v>0.393037097967337</v>
       </c>
       <c r="H5">
-        <v>0.2206320507573096</v>
+        <v>0.5596967328744924</v>
       </c>
       <c r="I5">
-        <v>0.2215275866650792</v>
+        <v>0.5691001149242005</v>
       </c>
       <c r="J5">
-        <v>0.03721754466769411</v>
+        <v>0.0208118000793327</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.407125050513244</v>
+        <v>0.5404545185319876</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8044302491947519</v>
+        <v>1.107773281824898</v>
       </c>
       <c r="O5">
-        <v>0.9135080991704143</v>
+        <v>1.849967919950615</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.749774725210955</v>
+        <v>0.7909037368324618</v>
       </c>
       <c r="C6">
-        <v>0.2610952348581321</v>
+        <v>0.2812460447660499</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1108075674673081</v>
+        <v>0.2767803775473539</v>
       </c>
       <c r="F6">
-        <v>0.7901947945548358</v>
+        <v>1.533951531919492</v>
       </c>
       <c r="G6">
-        <v>0.2361431025383567</v>
+        <v>0.3930519271034711</v>
       </c>
       <c r="H6">
-        <v>0.2205438116641218</v>
+        <v>0.5598642835745835</v>
       </c>
       <c r="I6">
-        <v>0.2217095959809399</v>
+        <v>0.5693842759195107</v>
       </c>
       <c r="J6">
-        <v>0.03702945422078585</v>
+        <v>0.02074911940643531</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4049329275137268</v>
+        <v>0.5399599271156319</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8043848063095567</v>
+        <v>1.107889321850372</v>
       </c>
       <c r="O6">
-        <v>0.9118628011553511</v>
+        <v>1.850338646127341</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.836582305617952</v>
+        <v>0.8174297129217507</v>
       </c>
       <c r="C7">
-        <v>0.2661836600456979</v>
+        <v>0.2829222011297929</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1118853282508567</v>
+        <v>0.2765570187046684</v>
       </c>
       <c r="F7">
-        <v>0.8052524854006364</v>
+        <v>1.534103770146658</v>
       </c>
       <c r="G7">
-        <v>0.2409296984933036</v>
+        <v>0.3929759808025182</v>
       </c>
       <c r="H7">
-        <v>0.2211920041565492</v>
+        <v>0.5587245427925467</v>
       </c>
       <c r="I7">
-        <v>0.2204946515258577</v>
+        <v>0.5674405454062708</v>
       </c>
       <c r="J7">
-        <v>0.03833433715485057</v>
+        <v>0.02118370624467047</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4201725237469986</v>
+        <v>0.543411354854527</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8047693958388393</v>
+        <v>1.107119451303618</v>
       </c>
       <c r="O7">
-        <v>0.9234700389689721</v>
+        <v>1.847870474450943</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.219433669372052</v>
+        <v>0.9344892911132092</v>
       </c>
       <c r="C8">
-        <v>0.2886096268593548</v>
+        <v>0.2902992822738639</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1169435242614085</v>
+        <v>0.2757947623745842</v>
       </c>
       <c r="F8">
-        <v>0.8747744322393487</v>
+        <v>1.536611922726678</v>
       </c>
       <c r="G8">
-        <v>0.2634376130157676</v>
+        <v>0.3933091436923633</v>
       </c>
       <c r="H8">
-        <v>0.2249652830782694</v>
+        <v>0.5542700247881029</v>
       </c>
       <c r="I8">
-        <v>0.2163706488174775</v>
+        <v>0.5595726654029782</v>
       </c>
       <c r="J8">
-        <v>0.04407695391997279</v>
+        <v>0.0230892749220537</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4880496825868903</v>
+        <v>0.5590954926920944</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8082200838729392</v>
+        <v>1.104600641858553</v>
       </c>
       <c r="O8">
-        <v>0.979519529387133</v>
+        <v>1.839579707750104</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.970479634017693</v>
+        <v>1.163954720148581</v>
       </c>
       <c r="C9">
-        <v>0.3325178135572742</v>
+        <v>0.3046870694107895</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.128032425121777</v>
+        <v>0.2750996327390069</v>
       </c>
       <c r="F9">
-        <v>1.023435815093492</v>
+        <v>1.548120771461555</v>
       </c>
       <c r="G9">
-        <v>0.3132236676805036</v>
+        <v>0.39637057631316</v>
       </c>
       <c r="H9">
-        <v>0.2359423483521113</v>
+        <v>0.5475987103921653</v>
       </c>
       <c r="I9">
-        <v>0.2131313283561553</v>
+        <v>0.5466958303009548</v>
       </c>
       <c r="J9">
-        <v>0.05529347104879889</v>
+        <v>0.02678104428073169</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.6238040544317016</v>
+        <v>0.5914644613876021</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8217209977291304</v>
+        <v>1.102802386415831</v>
       </c>
       <c r="O9">
-        <v>1.108826486332902</v>
+        <v>1.832677526453779</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.523570986312222</v>
+        <v>1.332411440460533</v>
       </c>
       <c r="C10">
-        <v>0.3647741131872237</v>
+        <v>0.3152032411204004</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1369764722807894</v>
+        <v>0.2750738585163539</v>
       </c>
       <c r="F10">
-        <v>1.141456021248345</v>
+        <v>1.560589489332088</v>
       </c>
       <c r="G10">
-        <v>0.3539141369373482</v>
+        <v>0.4000948644259381</v>
       </c>
       <c r="H10">
-        <v>0.2464852053180664</v>
+        <v>0.5439538801095409</v>
       </c>
       <c r="I10">
-        <v>0.2141044956054508</v>
+        <v>0.5387933033924526</v>
       </c>
       <c r="J10">
-        <v>0.06351915237178929</v>
+        <v>0.0294650600215931</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.7255605440544741</v>
+        <v>0.6162161637288506</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8361809998199305</v>
+        <v>1.103383347942412</v>
       </c>
       <c r="O10">
-        <v>1.217693274495673</v>
+        <v>1.83332189610141</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.775742030540755</v>
+        <v>1.409002693521302</v>
       </c>
       <c r="C11">
-        <v>0.3794576365040143</v>
+        <v>0.3199741469382502</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1412380522008654</v>
+        <v>0.2751669087884032</v>
       </c>
       <c r="F11">
-        <v>1.197358347127917</v>
+        <v>1.567132501282799</v>
       </c>
       <c r="G11">
-        <v>0.3734757377374507</v>
+        <v>0.4021109891213825</v>
       </c>
       <c r="H11">
-        <v>0.2518893937103996</v>
+        <v>0.5425682821859965</v>
       </c>
       <c r="I11">
-        <v>0.2153683590440068</v>
+        <v>0.5355370615763846</v>
       </c>
       <c r="J11">
-        <v>0.0672608493353124</v>
+        <v>0.03067976571141884</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.7723861472239832</v>
+        <v>0.6276844945414837</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8438479917178228</v>
+        <v>1.104058131730483</v>
       </c>
       <c r="O11">
-        <v>1.270710533407652</v>
+        <v>1.834858779922712</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.871337607960868</v>
+        <v>1.437998308893668</v>
       </c>
       <c r="C12">
-        <v>0.3850201906491151</v>
+        <v>0.3217787690831813</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1428812528951831</v>
+        <v>0.2752171632282625</v>
       </c>
       <c r="F12">
-        <v>1.218872025218843</v>
+        <v>1.569735276056321</v>
       </c>
       <c r="G12">
-        <v>0.3810483087029723</v>
+        <v>0.4029208396431585</v>
       </c>
       <c r="H12">
-        <v>0.2540294755508654</v>
+        <v>0.542082740443675</v>
       </c>
       <c r="I12">
-        <v>0.2159732832203645</v>
+        <v>0.5343527503583942</v>
       </c>
       <c r="J12">
-        <v>0.06867794147242279</v>
+        <v>0.03113882174204718</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.7902031868728443</v>
+        <v>0.6320569810889083</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8469169818819751</v>
+        <v>1.104372461315279</v>
       </c>
       <c r="O12">
-        <v>1.291331628554957</v>
+        <v>1.835619771225311</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.850744395709626</v>
+        <v>1.431753964341908</v>
       </c>
       <c r="C13">
-        <v>0.383822082763146</v>
+        <v>0.3213902035317773</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1425260231240983</v>
+        <v>0.2752056728595313</v>
       </c>
       <c r="F13">
-        <v>1.21422290436152</v>
+        <v>1.569169161632999</v>
       </c>
       <c r="G13">
-        <v>0.3794098511029631</v>
+        <v>0.402744359231292</v>
       </c>
       <c r="H13">
-        <v>0.2535643037372353</v>
+        <v>0.542185569544344</v>
       </c>
       <c r="I13">
-        <v>0.2158372470078618</v>
+        <v>0.5346056435683266</v>
       </c>
       <c r="J13">
-        <v>0.06837273305473701</v>
+        <v>0.0310399974328206</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.7863620442890351</v>
+        <v>0.6311139731109279</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8462485017042525</v>
+        <v>1.104302153060473</v>
       </c>
       <c r="O13">
-        <v>1.286865583023939</v>
+        <v>1.835447914306997</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.783604520257654</v>
+        <v>1.411388348605726</v>
       </c>
       <c r="C14">
-        <v>0.3799152218155939</v>
+        <v>0.3201226555770091</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1413726393651871</v>
+        <v>0.2751707425380658</v>
       </c>
       <c r="F14">
-        <v>1.199121226243093</v>
+        <v>1.567344127304168</v>
       </c>
       <c r="G14">
-        <v>0.3740953481199085</v>
+        <v>0.4021766857897973</v>
       </c>
       <c r="H14">
-        <v>0.2520635462129235</v>
+        <v>0.542527551807936</v>
       </c>
       <c r="I14">
-        <v>0.2154155457676801</v>
+        <v>0.5354386500860855</v>
       </c>
       <c r="J14">
-        <v>0.06737742916949685</v>
+        <v>0.03071755124565811</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.7738502098546007</v>
+        <v>0.628043628707843</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.844097105318653</v>
+        <v>1.104082814581545</v>
       </c>
       <c r="O14">
-        <v>1.272395876756178</v>
+        <v>1.834917798690327</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.742493628185457</v>
+        <v>1.398912741988624</v>
       </c>
       <c r="C15">
-        <v>0.3775224709809777</v>
+        <v>0.3193459787167683</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1406700435577442</v>
+        <v>0.2751513011054492</v>
       </c>
       <c r="F15">
-        <v>1.189916707014461</v>
+        <v>1.566242525149605</v>
       </c>
       <c r="G15">
-        <v>0.3708619773821056</v>
+        <v>0.4018350132824224</v>
       </c>
       <c r="H15">
-        <v>0.2511566726527121</v>
+        <v>0.5427421241165149</v>
       </c>
       <c r="I15">
-        <v>0.2151739461054092</v>
+        <v>0.5359552419426095</v>
       </c>
       <c r="J15">
-        <v>0.06676780874999366</v>
+        <v>0.03051992220822086</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.7661976955941441</v>
+        <v>0.6261668094484207</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8428011658990471</v>
+        <v>1.103956114763946</v>
       </c>
       <c r="O15">
-        <v>1.263604988807003</v>
+        <v>1.834616404110363</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.507104295934937</v>
+        <v>1.327405034994229</v>
       </c>
       <c r="C16">
-        <v>0.3638147765463629</v>
+        <v>0.3148911773984935</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1367019921422141</v>
+        <v>0.2750698816840895</v>
       </c>
       <c r="F16">
-        <v>1.137849439334062</v>
+        <v>1.560179399774867</v>
       </c>
       <c r="G16">
-        <v>0.3526580587972035</v>
+        <v>0.3999695920974773</v>
       </c>
       <c r="H16">
-        <v>0.2461447863736907</v>
+        <v>0.5440499125732572</v>
       </c>
       <c r="I16">
-        <v>0.2140391167348774</v>
+        <v>0.5390129261034247</v>
       </c>
       <c r="J16">
-        <v>0.06327463819642531</v>
+        <v>0.0293855478688414</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.7225118492417408</v>
+        <v>0.6154708521873147</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8357026207573455</v>
+        <v>1.103347490153084</v>
       </c>
       <c r="O16">
-        <v>1.214302319363924</v>
+        <v>1.833246498104415</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.36286114935973</v>
+        <v>1.283525563077205</v>
       </c>
       <c r="C17">
-        <v>0.3554086385655069</v>
+        <v>0.3121548738650262</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1343183003107278</v>
+        <v>0.2750467346213554</v>
       </c>
       <c r="F17">
-        <v>1.106493186683153</v>
+        <v>1.556682821202585</v>
       </c>
       <c r="G17">
-        <v>0.341769387263227</v>
+        <v>0.3989077380353194</v>
       </c>
       <c r="H17">
-        <v>0.2432302019962691</v>
+        <v>0.5449219630132518</v>
       </c>
       <c r="I17">
-        <v>0.2135589692950681</v>
+        <v>0.5409754962217725</v>
       </c>
       <c r="J17">
-        <v>0.061131791938422</v>
+        <v>0.02868802280647742</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.6958549030312611</v>
+        <v>0.6089624390435802</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8316331048558965</v>
+        <v>1.103079095722038</v>
       </c>
       <c r="O17">
-        <v>1.184980690157431</v>
+        <v>1.832724773092338</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.279948238771681</v>
+        <v>1.258283553487615</v>
       </c>
       <c r="C18">
-        <v>0.3505745366550883</v>
+        <v>0.3105798143529199</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1329653121447194</v>
+        <v>0.2750432858543661</v>
       </c>
       <c r="F18">
-        <v>1.088664658909678</v>
+        <v>1.554753667435236</v>
       </c>
       <c r="G18">
-        <v>0.3356045865511419</v>
+        <v>0.3983272833906568</v>
       </c>
       <c r="H18">
-        <v>0.241610663786588</v>
+        <v>0.5454491894476661</v>
       </c>
       <c r="I18">
-        <v>0.2133595714552001</v>
+        <v>0.5421361872083885</v>
       </c>
       <c r="J18">
-        <v>0.05989924981575001</v>
+        <v>0.02828623653569196</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.6805724727980333</v>
+        <v>0.6052386312672695</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8293943604778065</v>
+        <v>1.102963373909077</v>
       </c>
       <c r="O18">
-        <v>1.168441778053278</v>
+        <v>1.8325417498028</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.251883618409011</v>
+        <v>1.249736468587855</v>
       </c>
       <c r="C19">
-        <v>0.3489379223717322</v>
+        <v>0.3100463231228332</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1325102633336499</v>
+        <v>0.2750438139205649</v>
       </c>
       <c r="F19">
-        <v>1.08266296269187</v>
+        <v>1.554114575104506</v>
       </c>
       <c r="G19">
-        <v>0.3335337276635357</v>
+        <v>0.3981359518224679</v>
       </c>
       <c r="H19">
-        <v>0.2410718987222111</v>
+        <v>0.545632104742765</v>
       </c>
       <c r="I19">
-        <v>0.213305000827873</v>
+        <v>0.5425346495918966</v>
       </c>
       <c r="J19">
-        <v>0.05948191991487306</v>
+        <v>0.02815009834294102</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.6754064432043805</v>
+        <v>0.603981200376893</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8286536000385496</v>
+        <v>1.102930837895897</v>
       </c>
       <c r="O19">
-        <v>1.162896751005917</v>
+        <v>1.832499881480572</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.378210547390324</v>
+        <v>1.288197004976439</v>
       </c>
       <c r="C20">
-        <v>0.3563033891282288</v>
+        <v>0.312446284404615</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1345701684699918</v>
+        <v>0.2750481780442158</v>
       </c>
       <c r="F20">
-        <v>1.109809529374658</v>
+        <v>1.557046553899681</v>
       </c>
       <c r="G20">
-        <v>0.3429182570090035</v>
+        <v>0.3990176380254979</v>
       </c>
       <c r="H20">
-        <v>0.2435345368372452</v>
+        <v>0.5448264776581198</v>
       </c>
       <c r="I20">
-        <v>0.2136020782111991</v>
+        <v>0.540763278167276</v>
       </c>
       <c r="J20">
-        <v>0.06135990349670095</v>
+        <v>0.0287623366120755</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.6986873547665482</v>
+        <v>0.6096532384291748</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8320556981378786</v>
+        <v>1.103103668126337</v>
       </c>
       <c r="O20">
-        <v>1.188067978188144</v>
+        <v>1.832768195287656</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.803322123348153</v>
+        <v>1.417370452026489</v>
       </c>
       <c r="C21">
-        <v>0.3810626945498115</v>
+        <v>0.3204950210821664</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1417106033259401</v>
+        <v>0.2751805952116158</v>
       </c>
       <c r="F21">
-        <v>1.203547383274142</v>
+        <v>1.567876790830468</v>
       </c>
       <c r="G21">
-        <v>0.3756517532982429</v>
+        <v>0.4023421655361261</v>
       </c>
       <c r="H21">
-        <v>0.2525017627347665</v>
+        <v>0.5424260408903336</v>
       </c>
       <c r="I21">
-        <v>0.21553591302402</v>
+        <v>0.5351926521682486</v>
       </c>
       <c r="J21">
-        <v>0.06766976697088722</v>
+        <v>0.03081228685948645</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.7775228592551855</v>
+        <v>0.628944660417659</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8447244514978536</v>
+        <v>1.104145645475825</v>
       </c>
       <c r="O21">
-        <v>1.276630849357019</v>
+        <v>1.835068647077009</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.08177421379736</v>
+        <v>1.501746203376911</v>
       </c>
       <c r="C22">
-        <v>0.3972577150620964</v>
+        <v>0.3257435121078629</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1465497069947652</v>
+        <v>0.2753546533768017</v>
       </c>
       <c r="F22">
-        <v>1.266832928215862</v>
+        <v>1.575683951949827</v>
       </c>
       <c r="G22">
-        <v>0.3980138954189982</v>
+        <v>0.4047853635176324</v>
       </c>
       <c r="H22">
-        <v>0.2589112812126473</v>
+        <v>0.5410854255245994</v>
       </c>
       <c r="I22">
-        <v>0.217540300520966</v>
+        <v>0.531836145315765</v>
       </c>
       <c r="J22">
-        <v>0.07179486473020802</v>
+        <v>0.03214663470512846</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.8295471909856644</v>
+        <v>0.6417255577415801</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.8539744510600968</v>
+        <v>1.105169288582857</v>
       </c>
       <c r="O22">
-        <v>1.33770779177317</v>
+        <v>1.837615583892358</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.933094788599249</v>
+        <v>1.45671819684037</v>
       </c>
       <c r="C23">
-        <v>0.3886126200752074</v>
+        <v>0.3229434261459261</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1439506236300261</v>
+        <v>0.275253763478954</v>
       </c>
       <c r="F23">
-        <v>1.232862081652996</v>
+        <v>1.57145047541681</v>
       </c>
       <c r="G23">
-        <v>0.3859853395445469</v>
+        <v>0.4034566076168318</v>
       </c>
       <c r="H23">
-        <v>0.2554380301532717</v>
+        <v>0.5417800641223067</v>
       </c>
       <c r="I23">
-        <v>0.2163999096002414</v>
+        <v>0.5336015509252725</v>
       </c>
       <c r="J23">
-        <v>0.06959303182166821</v>
+        <v>0.03143497190981748</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.8017321811184388</v>
+        <v>0.6348884454443464</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.8489456369309494</v>
+        <v>1.104591671962154</v>
       </c>
       <c r="O23">
-        <v>1.304802764553784</v>
+        <v>1.836160708491121</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.371271041368573</v>
+        <v>1.286085093026315</v>
       </c>
       <c r="C24">
-        <v>0.3558988765103095</v>
+        <v>0.3123145436754413</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1344562447178994</v>
+        <v>0.2750474947603792</v>
       </c>
       <c r="F24">
-        <v>1.108309594217403</v>
+        <v>1.556881857791851</v>
       </c>
       <c r="G24">
-        <v>0.3423985573771517</v>
+        <v>0.3989678587393115</v>
       </c>
       <c r="H24">
-        <v>0.2433967727941848</v>
+        <v>0.5448695659919593</v>
       </c>
       <c r="I24">
-        <v>0.2135823505549368</v>
+        <v>0.5408591210825016</v>
       </c>
       <c r="J24">
-        <v>0.06125677611949243</v>
+        <v>0.02872874173694129</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.6974066699985997</v>
+        <v>0.6093408720424236</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8318643301923885</v>
+        <v>1.103092438745691</v>
       </c>
       <c r="O24">
-        <v>1.186671226432537</v>
+        <v>1.832748199916949</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.76716043913467</v>
+        <v>1.10189573025599</v>
       </c>
       <c r="C25">
-        <v>0.3206430839546641</v>
+        <v>0.3008038950728178</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1248989544585015</v>
+        <v>0.2752023392893399</v>
       </c>
       <c r="F25">
-        <v>0.9817709482157255</v>
+        <v>1.544302237252978</v>
       </c>
       <c r="G25">
-        <v>0.2990837313393513</v>
+        <v>0.3952838448637124</v>
       </c>
       <c r="H25">
-        <v>0.2325601167522819</v>
+        <v>0.5491826875098553</v>
       </c>
       <c r="I25">
-        <v>0.2134488933746574</v>
+        <v>0.5499059035159632</v>
       </c>
       <c r="J25">
-        <v>0.05226267902850168</v>
+        <v>0.02578723447748743</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5867552384881378</v>
+        <v>0.5825364946146294</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8173043130728672</v>
+        <v>1.10295392175081</v>
       </c>
       <c r="O25">
-        <v>1.071565471079822</v>
+        <v>1.83354190391745</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_181/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_181/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9662035273968854</v>
+        <v>2.323146701074904</v>
       </c>
       <c r="C2">
-        <v>0.2922930264897445</v>
+        <v>0.2946799545975267</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2756424402917332</v>
+        <v>0.1183902459909554</v>
       </c>
       <c r="F2">
-        <v>1.537737671043047</v>
+        <v>0.8944006132947777</v>
       </c>
       <c r="G2">
-        <v>0.3935621180173499</v>
+        <v>0.2698948238451919</v>
       </c>
       <c r="H2">
-        <v>0.5532028149622406</v>
+        <v>0.2262193351690982</v>
       </c>
       <c r="I2">
-        <v>0.5576134873791112</v>
+        <v>0.2155673039318771</v>
       </c>
       <c r="J2">
-        <v>0.0236025723335942</v>
+        <v>0.04562945964741871</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.5634547036626856</v>
+        <v>0.5066060080313548</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.104131231087905</v>
+        <v>0.8095955170606004</v>
       </c>
       <c r="O2">
-        <v>1.837966045474914</v>
+        <v>0.9959468351052294</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.874220390729306</v>
+        <v>2.022346742945047</v>
       </c>
       <c r="C3">
-        <v>0.2865049226391676</v>
+        <v>0.2770683765137107</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2761449441553516</v>
+        <v>0.1142809726607403</v>
       </c>
       <c r="F3">
-        <v>1.53497284433999</v>
+        <v>0.8383820283295975</v>
       </c>
       <c r="G3">
-        <v>0.3930109363187242</v>
+        <v>0.2515784499171616</v>
       </c>
       <c r="H3">
-        <v>0.5564545984607818</v>
+        <v>0.2228459685689685</v>
       </c>
       <c r="I3">
-        <v>0.5634891040949377</v>
+        <v>0.2182545727472665</v>
       </c>
       <c r="J3">
-        <v>0.02211049803630161</v>
+        <v>0.04112312475374935</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.5509346629821295</v>
+        <v>0.4529787339352538</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.105731281217004</v>
+        <v>0.8061059747153223</v>
       </c>
       <c r="O3">
-        <v>1.843355514392769</v>
+        <v>0.9497219191339781</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8177401074844113</v>
+        <v>1.837597897669696</v>
       </c>
       <c r="C4">
-        <v>0.2829418039676597</v>
+        <v>0.2662431840128221</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2765545275132091</v>
+        <v>0.111898100986263</v>
       </c>
       <c r="F4">
-        <v>1.534106556762012</v>
+        <v>0.8054303040986568</v>
       </c>
       <c r="G4">
-        <v>0.3929754575098556</v>
+        <v>0.2409864356476206</v>
       </c>
       <c r="H4">
-        <v>0.558711521131336</v>
+        <v>0.2212000750130017</v>
       </c>
       <c r="I4">
-        <v>0.5674181894446235</v>
+        <v>0.2204810941437678</v>
       </c>
       <c r="J4">
-        <v>0.0211887848383725</v>
+        <v>0.03834959685366357</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.5434519898627173</v>
+        <v>0.4203511716767423</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.107110924337988</v>
+        <v>0.8047748362566054</v>
       </c>
       <c r="O4">
-        <v>1.847843016475082</v>
+        <v>0.9236084085477501</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7947252112458614</v>
+        <v>1.762282844794015</v>
       </c>
       <c r="C5">
-        <v>0.2814876351450408</v>
+        <v>0.2618285015822863</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.276746895738313</v>
+        <v>0.1109611277293574</v>
       </c>
       <c r="F5">
-        <v>1.533962765968404</v>
+        <v>0.7923469702789347</v>
       </c>
       <c r="G5">
-        <v>0.393037097967337</v>
+        <v>0.2368250193661723</v>
       </c>
       <c r="H5">
-        <v>0.5596967328744924</v>
+        <v>0.2206320507573096</v>
       </c>
       <c r="I5">
-        <v>0.5691001149242005</v>
+        <v>0.2215275866650792</v>
       </c>
       <c r="J5">
-        <v>0.0208118000793327</v>
+        <v>0.03721754466758043</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.5404545185319876</v>
+        <v>0.4071250505132298</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.107773281824898</v>
+        <v>0.804430249194688</v>
       </c>
       <c r="O5">
-        <v>1.849967919950615</v>
+        <v>0.9135080991704285</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7909037368324618</v>
+        <v>1.749774725210955</v>
       </c>
       <c r="C6">
-        <v>0.2812460447660499</v>
+        <v>0.2610952348578905</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2767803775473539</v>
+        <v>0.1108075674672477</v>
       </c>
       <c r="F6">
-        <v>1.533951531919492</v>
+        <v>0.7901947945548429</v>
       </c>
       <c r="G6">
-        <v>0.3930519271034711</v>
+        <v>0.2361431025383141</v>
       </c>
       <c r="H6">
-        <v>0.5598642835745835</v>
+        <v>0.2205438116642355</v>
       </c>
       <c r="I6">
-        <v>0.5693842759195107</v>
+        <v>0.2217095959809434</v>
       </c>
       <c r="J6">
-        <v>0.02074911940643531</v>
+        <v>0.03702945422072546</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5399599271156319</v>
+        <v>0.4049329275137268</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.107889321850372</v>
+        <v>0.8043848063095567</v>
       </c>
       <c r="O6">
-        <v>1.850338646127341</v>
+        <v>0.9118628011553085</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8174297129217507</v>
+        <v>1.83658230561818</v>
       </c>
       <c r="C7">
-        <v>0.2829222011297929</v>
+        <v>0.2661836600456979</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2765570187046684</v>
+        <v>0.1118853282508532</v>
       </c>
       <c r="F7">
-        <v>1.534103770146658</v>
+        <v>0.8052524854006364</v>
       </c>
       <c r="G7">
-        <v>0.3929759808025182</v>
+        <v>0.2409296984933604</v>
       </c>
       <c r="H7">
-        <v>0.5587245427925467</v>
+        <v>0.2211920041565492</v>
       </c>
       <c r="I7">
-        <v>0.5674405454062708</v>
+        <v>0.220494651525847</v>
       </c>
       <c r="J7">
-        <v>0.02118370624467047</v>
+        <v>0.03833433715488255</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.543411354854527</v>
+        <v>0.4201725237469844</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.107119451303618</v>
+        <v>0.8047693958388464</v>
       </c>
       <c r="O7">
-        <v>1.847870474450943</v>
+        <v>0.9234700389689152</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9344892911132092</v>
+        <v>2.219433669372052</v>
       </c>
       <c r="C8">
-        <v>0.2902992822738639</v>
+        <v>0.2886096268591274</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2757947623745842</v>
+        <v>0.1169435242614227</v>
       </c>
       <c r="F8">
-        <v>1.536611922726678</v>
+        <v>0.8747744322393487</v>
       </c>
       <c r="G8">
-        <v>0.3933091436923633</v>
+        <v>0.2634376130157676</v>
       </c>
       <c r="H8">
-        <v>0.5542700247881029</v>
+        <v>0.2249652830782694</v>
       </c>
       <c r="I8">
-        <v>0.5595726654029782</v>
+        <v>0.2163706488174952</v>
       </c>
       <c r="J8">
-        <v>0.0230892749220537</v>
+        <v>0.04407695392000122</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.5590954926920944</v>
+        <v>0.4880496825869329</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.104600641858553</v>
+        <v>0.8082200838728824</v>
       </c>
       <c r="O8">
-        <v>1.839579707750104</v>
+        <v>0.979519529387133</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.163954720148581</v>
+        <v>2.970479634017522</v>
       </c>
       <c r="C9">
-        <v>0.3046870694107895</v>
+        <v>0.3325178135569615</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2750996327390069</v>
+        <v>0.1280324251217735</v>
       </c>
       <c r="F9">
-        <v>1.548120771461555</v>
+        <v>1.023435815093492</v>
       </c>
       <c r="G9">
-        <v>0.39637057631316</v>
+        <v>0.3132236676805036</v>
       </c>
       <c r="H9">
-        <v>0.5475987103921653</v>
+        <v>0.2359423483521113</v>
       </c>
       <c r="I9">
-        <v>0.5466958303009548</v>
+        <v>0.2131313283561553</v>
       </c>
       <c r="J9">
-        <v>0.02678104428073169</v>
+        <v>0.05529347104878823</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5914644613876021</v>
+        <v>0.6238040544317016</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.102802386415831</v>
+        <v>0.8217209977291873</v>
       </c>
       <c r="O9">
-        <v>1.832677526453779</v>
+        <v>1.108826486332873</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.332411440460533</v>
+        <v>3.523570986312222</v>
       </c>
       <c r="C10">
-        <v>0.3152032411204004</v>
+        <v>0.3647741131867548</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2750738585163539</v>
+        <v>0.1369764722808</v>
       </c>
       <c r="F10">
-        <v>1.560589489332088</v>
+        <v>1.141456021248345</v>
       </c>
       <c r="G10">
-        <v>0.4000948644259381</v>
+        <v>0.3539141369372629</v>
       </c>
       <c r="H10">
-        <v>0.5439538801095409</v>
+        <v>0.2464852053180664</v>
       </c>
       <c r="I10">
-        <v>0.5387933033924526</v>
+        <v>0.2141044956054579</v>
       </c>
       <c r="J10">
-        <v>0.0294650600215931</v>
+        <v>0.06351915237178218</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.6162161637288506</v>
+        <v>0.7255605440544031</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.103383347942412</v>
+        <v>0.8361809998199163</v>
       </c>
       <c r="O10">
-        <v>1.83332189610141</v>
+        <v>1.217693274495616</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.409002693521302</v>
+        <v>3.775742030540755</v>
       </c>
       <c r="C11">
-        <v>0.3199741469382502</v>
+        <v>0.3794576365040285</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2751669087884032</v>
+        <v>0.1412380522009116</v>
       </c>
       <c r="F11">
-        <v>1.567132501282799</v>
+        <v>1.197358347127903</v>
       </c>
       <c r="G11">
-        <v>0.4021109891213825</v>
+        <v>0.3734757377373796</v>
       </c>
       <c r="H11">
-        <v>0.5425682821859965</v>
+        <v>0.2518893937103854</v>
       </c>
       <c r="I11">
-        <v>0.5355370615763846</v>
+        <v>0.2153683590440139</v>
       </c>
       <c r="J11">
-        <v>0.03067976571141884</v>
+        <v>0.06726084933533372</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6276844945414837</v>
+        <v>0.7723861472238696</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.104058131730483</v>
+        <v>0.843847991717837</v>
       </c>
       <c r="O11">
-        <v>1.834858779922712</v>
+        <v>1.270710533407652</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.437998308893668</v>
+        <v>3.871337607960982</v>
       </c>
       <c r="C12">
-        <v>0.3217787690831813</v>
+        <v>0.3850201906493709</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2752171632282625</v>
+        <v>0.1428812528951546</v>
       </c>
       <c r="F12">
-        <v>1.569735276056321</v>
+        <v>1.218872025218843</v>
       </c>
       <c r="G12">
-        <v>0.4029208396431585</v>
+        <v>0.3810483087029866</v>
       </c>
       <c r="H12">
-        <v>0.542082740443675</v>
+        <v>0.2540294755509791</v>
       </c>
       <c r="I12">
-        <v>0.5343527503583942</v>
+        <v>0.2159732832203858</v>
       </c>
       <c r="J12">
-        <v>0.03113882174204718</v>
+        <v>0.06867794147240858</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6320569810889083</v>
+        <v>0.7902031868728443</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.104372461315279</v>
+        <v>0.8469169818819893</v>
       </c>
       <c r="O12">
-        <v>1.835619771225311</v>
+        <v>1.291331628554957</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.431753964341908</v>
+        <v>3.850744395709626</v>
       </c>
       <c r="C13">
-        <v>0.3213902035317773</v>
+        <v>0.3838220827633876</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2752056728595313</v>
+        <v>0.1425260231240948</v>
       </c>
       <c r="F13">
-        <v>1.569169161632999</v>
+        <v>1.21422290436152</v>
       </c>
       <c r="G13">
-        <v>0.402744359231292</v>
+        <v>0.3794098511029773</v>
       </c>
       <c r="H13">
-        <v>0.542185569544344</v>
+        <v>0.2535643037371216</v>
       </c>
       <c r="I13">
-        <v>0.5346056435683266</v>
+        <v>0.2158372470078618</v>
       </c>
       <c r="J13">
-        <v>0.0310399974328206</v>
+        <v>0.06837273305469438</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6311139731109279</v>
+        <v>0.7863620442890351</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.104302153060473</v>
+        <v>0.8462485017042525</v>
       </c>
       <c r="O13">
-        <v>1.835447914306997</v>
+        <v>1.286865583023939</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.411388348605726</v>
+        <v>3.783604520257711</v>
       </c>
       <c r="C14">
-        <v>0.3201226555770091</v>
+        <v>0.3799152218158923</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2751707425380658</v>
+        <v>0.1413726393651835</v>
       </c>
       <c r="F14">
-        <v>1.567344127304168</v>
+        <v>1.199121226243108</v>
       </c>
       <c r="G14">
-        <v>0.4021766857897973</v>
+        <v>0.3740953481199085</v>
       </c>
       <c r="H14">
-        <v>0.542527551807936</v>
+        <v>0.2520635462129093</v>
       </c>
       <c r="I14">
-        <v>0.5354386500860855</v>
+        <v>0.2154155457676659</v>
       </c>
       <c r="J14">
-        <v>0.03071755124565811</v>
+        <v>0.06737742916954659</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.628043628707843</v>
+        <v>0.7738502098546576</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.104082814581545</v>
+        <v>0.8440971053186246</v>
       </c>
       <c r="O14">
-        <v>1.834917798690327</v>
+        <v>1.272395876756121</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.398912741988624</v>
+        <v>3.742493628185457</v>
       </c>
       <c r="C15">
-        <v>0.3193459787167683</v>
+        <v>0.3775224709809777</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2751513011054492</v>
+        <v>0.1406700435577335</v>
       </c>
       <c r="F15">
-        <v>1.566242525149605</v>
+        <v>1.189916707014476</v>
       </c>
       <c r="G15">
-        <v>0.4018350132824224</v>
+        <v>0.3708619773821766</v>
       </c>
       <c r="H15">
-        <v>0.5427421241165149</v>
+        <v>0.2511566726528258</v>
       </c>
       <c r="I15">
-        <v>0.5359552419426095</v>
+        <v>0.2151739461054021</v>
       </c>
       <c r="J15">
-        <v>0.03051992220822086</v>
+        <v>0.06676780874984445</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6261668094484207</v>
+        <v>0.7661976955941725</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.103956114763946</v>
+        <v>0.8428011658991039</v>
       </c>
       <c r="O15">
-        <v>1.834616404110363</v>
+        <v>1.263604988807003</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.327405034994229</v>
+        <v>3.507104295934937</v>
       </c>
       <c r="C16">
-        <v>0.3148911773984935</v>
+        <v>0.3638147765466471</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2750698816840895</v>
+        <v>0.1367019921422319</v>
       </c>
       <c r="F16">
-        <v>1.560179399774867</v>
+        <v>1.137849439334062</v>
       </c>
       <c r="G16">
-        <v>0.3999695920974773</v>
+        <v>0.3526580587972035</v>
       </c>
       <c r="H16">
-        <v>0.5440499125732572</v>
+        <v>0.2461447863736907</v>
       </c>
       <c r="I16">
-        <v>0.5390129261034247</v>
+        <v>0.2140391167348703</v>
       </c>
       <c r="J16">
-        <v>0.0293855478688414</v>
+        <v>0.0632746381964111</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.6154708521873147</v>
+        <v>0.7225118492417835</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.103347490153084</v>
+        <v>0.8357026207574023</v>
       </c>
       <c r="O16">
-        <v>1.833246498104415</v>
+        <v>1.214302319363895</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.283525563077205</v>
+        <v>3.362861149359844</v>
       </c>
       <c r="C17">
-        <v>0.3121548738650262</v>
+        <v>0.3554086385657342</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2750467346213554</v>
+        <v>0.1343183003107313</v>
       </c>
       <c r="F17">
-        <v>1.556682821202585</v>
+        <v>1.106493186683153</v>
       </c>
       <c r="G17">
-        <v>0.3989077380353194</v>
+        <v>0.341769387263156</v>
       </c>
       <c r="H17">
-        <v>0.5449219630132518</v>
+        <v>0.2432302019962691</v>
       </c>
       <c r="I17">
-        <v>0.5409754962217725</v>
+        <v>0.2135589692950681</v>
       </c>
       <c r="J17">
-        <v>0.02868802280647742</v>
+        <v>0.06113179193841489</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.6089624390435802</v>
+        <v>0.6958549030312469</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.103079095722038</v>
+        <v>0.8316331048558965</v>
       </c>
       <c r="O17">
-        <v>1.832724773092338</v>
+        <v>1.18498069015746</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.258283553487615</v>
+        <v>3.279948238771567</v>
       </c>
       <c r="C18">
-        <v>0.3105798143529199</v>
+        <v>0.3505745366551594</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2750432858543661</v>
+        <v>0.1329653121446945</v>
       </c>
       <c r="F18">
-        <v>1.554753667435236</v>
+        <v>1.088664658909693</v>
       </c>
       <c r="G18">
-        <v>0.3983272833906568</v>
+        <v>0.335604586551085</v>
       </c>
       <c r="H18">
-        <v>0.5454491894476661</v>
+        <v>0.2416106637867017</v>
       </c>
       <c r="I18">
-        <v>0.5421361872083885</v>
+        <v>0.2133595714552037</v>
       </c>
       <c r="J18">
-        <v>0.02828623653569196</v>
+        <v>0.05989924981585659</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.6052386312672695</v>
+        <v>0.6805724727979765</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.102963373909077</v>
+        <v>0.8293943604778065</v>
       </c>
       <c r="O18">
-        <v>1.8325417498028</v>
+        <v>1.168441778053335</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.249736468587855</v>
+        <v>3.25188361840884</v>
       </c>
       <c r="C19">
-        <v>0.3100463231228332</v>
+        <v>0.3489379223719453</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2750438139205649</v>
+        <v>0.1325102633336357</v>
       </c>
       <c r="F19">
-        <v>1.554114575104506</v>
+        <v>1.08266296269187</v>
       </c>
       <c r="G19">
-        <v>0.3981359518224679</v>
+        <v>0.3335337276634789</v>
       </c>
       <c r="H19">
-        <v>0.545632104742765</v>
+        <v>0.2410718987222253</v>
       </c>
       <c r="I19">
-        <v>0.5425346495918966</v>
+        <v>0.2133050008278801</v>
       </c>
       <c r="J19">
-        <v>0.02815009834294102</v>
+        <v>0.05948191991488727</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.603981200376893</v>
+        <v>0.6754064432044657</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.102930837895897</v>
+        <v>0.8286536000385496</v>
       </c>
       <c r="O19">
-        <v>1.832499881480572</v>
+        <v>1.162896751005917</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.288197004976439</v>
+        <v>3.378210547390381</v>
       </c>
       <c r="C20">
-        <v>0.312446284404615</v>
+        <v>0.3563033891280583</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2750481780442158</v>
+        <v>0.1345701684700025</v>
       </c>
       <c r="F20">
-        <v>1.557046553899681</v>
+        <v>1.109809529374644</v>
       </c>
       <c r="G20">
-        <v>0.3990176380254979</v>
+        <v>0.3429182570090461</v>
       </c>
       <c r="H20">
-        <v>0.5448264776581198</v>
+        <v>0.2435345368371316</v>
       </c>
       <c r="I20">
-        <v>0.540763278167276</v>
+        <v>0.2136020782111991</v>
       </c>
       <c r="J20">
-        <v>0.0287623366120755</v>
+        <v>0.06135990349660148</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.6096532384291748</v>
+        <v>0.698687354766534</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.103103668126337</v>
+        <v>0.8320556981378928</v>
       </c>
       <c r="O20">
-        <v>1.832768195287656</v>
+        <v>1.188067978188087</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.417370452026489</v>
+        <v>3.803322123348153</v>
       </c>
       <c r="C21">
-        <v>0.3204950210821664</v>
+        <v>0.3810626945500388</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2751805952116158</v>
+        <v>0.1417106033259543</v>
       </c>
       <c r="F21">
-        <v>1.567876790830468</v>
+        <v>1.203547383274142</v>
       </c>
       <c r="G21">
-        <v>0.4023421655361261</v>
+        <v>0.3756517532982429</v>
       </c>
       <c r="H21">
-        <v>0.5424260408903336</v>
+        <v>0.2525017627347665</v>
       </c>
       <c r="I21">
-        <v>0.5351926521682486</v>
+        <v>0.21553591302402</v>
       </c>
       <c r="J21">
-        <v>0.03081228685948645</v>
+        <v>0.06766976697097959</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.628944660417659</v>
+        <v>0.7775228592551571</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.104145645475825</v>
+        <v>0.8447244514977967</v>
       </c>
       <c r="O21">
-        <v>1.835068647077009</v>
+        <v>1.276630849357019</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.501746203376911</v>
+        <v>4.081774213797303</v>
       </c>
       <c r="C22">
-        <v>0.3257435121078629</v>
+        <v>0.3972577150620253</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2753546533768017</v>
+        <v>0.1465497069947475</v>
       </c>
       <c r="F22">
-        <v>1.575683951949827</v>
+        <v>1.266832928215877</v>
       </c>
       <c r="G22">
-        <v>0.4047853635176324</v>
+        <v>0.398013895418984</v>
       </c>
       <c r="H22">
-        <v>0.5410854255245994</v>
+        <v>0.2589112812125336</v>
       </c>
       <c r="I22">
-        <v>0.531836145315765</v>
+        <v>0.2175403005209731</v>
       </c>
       <c r="J22">
-        <v>0.03214663470512846</v>
+        <v>0.07179486473024355</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6417255577415801</v>
+        <v>0.8295471909856644</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.105169288582857</v>
+        <v>0.8539744510600968</v>
       </c>
       <c r="O22">
-        <v>1.837615583892358</v>
+        <v>1.337707791773255</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.45671819684037</v>
+        <v>3.933094788599419</v>
       </c>
       <c r="C23">
-        <v>0.3229434261459261</v>
+        <v>0.3886126200749658</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.275253763478954</v>
+        <v>0.1439506236300403</v>
       </c>
       <c r="F23">
-        <v>1.57145047541681</v>
+        <v>1.232862081652996</v>
       </c>
       <c r="G23">
-        <v>0.4034566076168318</v>
+        <v>0.3859853395445469</v>
       </c>
       <c r="H23">
-        <v>0.5417800641223067</v>
+        <v>0.2554380301532717</v>
       </c>
       <c r="I23">
-        <v>0.5336015509252725</v>
+        <v>0.2163999096002414</v>
       </c>
       <c r="J23">
-        <v>0.03143497190981748</v>
+        <v>0.0695930318216611</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6348884454443464</v>
+        <v>0.8017321811184956</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.104591671962154</v>
+        <v>0.8489456369309494</v>
       </c>
       <c r="O23">
-        <v>1.836160708491121</v>
+        <v>1.304802764553784</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.286085093026315</v>
+        <v>3.371271041368573</v>
       </c>
       <c r="C24">
-        <v>0.3123145436754413</v>
+        <v>0.3558988765103805</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2750474947603792</v>
+        <v>0.1344562447178959</v>
       </c>
       <c r="F24">
-        <v>1.556881857791851</v>
+        <v>1.108309594217403</v>
       </c>
       <c r="G24">
-        <v>0.3989678587393115</v>
+        <v>0.3423985573771375</v>
       </c>
       <c r="H24">
-        <v>0.5448695659919593</v>
+        <v>0.2433967727940711</v>
       </c>
       <c r="I24">
-        <v>0.5408591210825016</v>
+        <v>0.2135823505549332</v>
       </c>
       <c r="J24">
-        <v>0.02872874173694129</v>
+        <v>0.06125677611948532</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.6093408720424236</v>
+        <v>0.6974066699985997</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.103092438745691</v>
+        <v>0.8318643301923885</v>
       </c>
       <c r="O24">
-        <v>1.832748199916949</v>
+        <v>1.186671226432537</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.10189573025599</v>
+        <v>2.767160439134557</v>
       </c>
       <c r="C25">
-        <v>0.3008038950728178</v>
+        <v>0.3206430839545789</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2752023392893399</v>
+        <v>0.1248989544584873</v>
       </c>
       <c r="F25">
-        <v>1.544302237252978</v>
+        <v>0.9817709482157113</v>
       </c>
       <c r="G25">
-        <v>0.3952838448637124</v>
+        <v>0.2990837313392944</v>
       </c>
       <c r="H25">
-        <v>0.5491826875098553</v>
+        <v>0.2325601167522819</v>
       </c>
       <c r="I25">
-        <v>0.5499059035159632</v>
+        <v>0.213448893374661</v>
       </c>
       <c r="J25">
-        <v>0.02578723447748743</v>
+        <v>0.05226267902849102</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5825364946146294</v>
+        <v>0.5867552384882515</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.10295392175081</v>
+        <v>0.817304313072853</v>
       </c>
       <c r="O25">
-        <v>1.83354190391745</v>
+        <v>1.071565471079822</v>
       </c>
     </row>
   </sheetData>
